--- a/Shiny/Test/Data/Care_Norge.xlsx
+++ b/Shiny/Test/Data/Care_Norge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torbjornottersen/Documents/ISSSV1337/ISSSV1337-Case/Shiny/Test/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7184215cb1ebccca/Documents/ISSSV1337/ISSSV1337-Case/Shiny/Test/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EC44A79-1B45-5C44-972D-4D82F196D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{06DA70ED-ED6F-DE4A-8A02-2AD2455E85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D527D1F2-36F7-9448-AB2A-1F0A9E3F5C92}"/>
   <bookViews>
     <workbookView xWindow="34320" yWindow="2920" windowWidth="12100" windowHeight="21360" xr2:uid="{53754C84-E169-0147-918E-884E18682F79}"/>
   </bookViews>

--- a/Shiny/Test/Data/Care_Norge.xlsx
+++ b/Shiny/Test/Data/Care_Norge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7184215cb1ebccca/Documents/ISSSV1337/ISSSV1337-Case/Shiny/Test/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torbjornottersen/Documents/ISSSV1337/ISSSV1337-Case/Shiny/Test/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{06DA70ED-ED6F-DE4A-8A02-2AD2455E85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D527D1F2-36F7-9448-AB2A-1F0A9E3F5C92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E0898-C85E-F640-95CA-7730983DA0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="2920" windowWidth="12100" windowHeight="21360" xr2:uid="{53754C84-E169-0147-918E-884E18682F79}"/>
+    <workbookView xWindow="6980" yWindow="1340" windowWidth="12100" windowHeight="21360" xr2:uid="{53754C84-E169-0147-918E-884E18682F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AE676F-2AEC-6041-849D-D057AD5F77E1}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
